--- a/7rmartProject/src/test/resources/TestData.xlsx
+++ b/7rmartProject/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="4944"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="4944" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ManageFooter" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q15"/>
+  <oleSize ref="A1:N15"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -450,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -607,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/7rmartProject/src/test/resources/TestData.xlsx
+++ b/7rmartProject/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="4944" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="4236" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -113,12 +113,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,16 +169,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,7 +616,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -638,10 +646,10 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
